--- a/Factures_Excel/1596 - Mélanie Jalbert.xlsx
+++ b/Factures_Excel/1596 - Mélanie Jalbert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D51BEF-6196-4014-BD7A-E6DF8B7BFC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA829B6D-A219-4C3F-AB65-FD426CBBE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="06-10-21" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Activités" sheetId="5" r:id="rId7"/>
     <sheet name="2024-11-02 - 24-24584" sheetId="12" r:id="rId8"/>
     <sheet name="2024-12-21 - 24-24691" sheetId="13" r:id="rId9"/>
+    <sheet name="2025-03-02 - 25-24780" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$53</definedName>
@@ -38,6 +39,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'11-12-21'!$A$1:$F$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2024-11-02 - 24-24584'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2024-12-21 - 24-24691'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-03-02 - 25-24780'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'22-12-22'!$A$1:$F$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'30-03-22'!$A$1:$F$87</definedName>
     <definedName name="Zone_impres_MI">#REF!</definedName>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="112">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -383,6 +385,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - Rédaction de directives aux juristes afin de débuter la mise en place de la planification fiscale;</t>
+  </si>
+  <si>
+    <t>Le 2 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24780</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lecture, analyse, réflexions et rédaction de divers courriels en lien avec diverses questions soumises par vous et votre comptable;</t>
+  </si>
+  <si>
+    <t>9512-4517 Québec Inc.</t>
   </si>
 </sst>
 </file>
@@ -550,6 +564,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1110,6 +1125,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,9 +1148,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1668,6 +1683,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9217" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85F968A-CEBA-0F42-50DB-03F343B96BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2724,8 +2805,831 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1DD0F5-1572-4AB3-A714-77C8FFE69E48}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="70"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="72"/>
+      <c r="B34" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="72"/>
+      <c r="B35" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
+      <c r="B36" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="72"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="72"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="72"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="72"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="72"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="72"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="72"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="72"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="72"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="72"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="72"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="72"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="72"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="72"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="72"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="72"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="72"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="72"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="72"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="72"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="72"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="72"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="72"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="72"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="72"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="72"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="72"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="72"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="72"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="72"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="88">
+        <v>4.75</v>
+      </c>
+      <c r="D66" s="89">
+        <v>400</v>
+      </c>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="72"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="72"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="72"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="92"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="93">
+        <v>1900</v>
+      </c>
+      <c r="F69" s="93"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="59"/>
+      <c r="B70" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="95"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="96">
+        <v>0</v>
+      </c>
+      <c r="F70" s="96"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="95"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="96">
+        <v>0</v>
+      </c>
+      <c r="F71" s="96"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="95"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="96">
+        <v>0</v>
+      </c>
+      <c r="F72" s="96"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="92"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="98">
+        <v>1900</v>
+      </c>
+      <c r="F73" s="98"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59"/>
+      <c r="B74" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="99">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="95"/>
+      <c r="E74" s="100">
+        <v>95</v>
+      </c>
+      <c r="F74" s="100"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="59"/>
+      <c r="B75" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="102">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="95"/>
+      <c r="E75" s="103">
+        <v>189.53</v>
+      </c>
+      <c r="F75" s="100"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="59"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="92"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="106">
+        <v>2184.5300000000002</v>
+      </c>
+      <c r="F77" s="107"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="101"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="101"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="101"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="129"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="110">
+        <v>2184.5300000000002</v>
+      </c>
+      <c r="F81" s="62"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="111"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="112"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="73"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="113"/>
+      <c r="B86" s="113"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="113"/>
+      <c r="E86" s="113"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="113"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="113"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3472,7 +4376,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4204,7 +5108,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4936,7 +5840,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5660,7 +6564,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6384,7 +7288,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6827,7 +7731,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -7100,13 +8004,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7563,10 +8467,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="127" t="s">
+      <c r="B81" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="128"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="109"/>
       <c r="E81" s="110">
         <v>905.43</v>
@@ -7583,30 +8487,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="111"/>
-      <c r="B83" s="129"/>
-      <c r="C83" s="130"/>
-      <c r="D83" s="130"/>
-      <c r="E83" s="130"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
       <c r="F83" s="112"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="131" t="s">
+      <c r="A84" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="131"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="132" t="s">
+      <c r="A85" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="132"/>
-      <c r="C85" s="132"/>
-      <c r="D85" s="132"/>
-      <c r="E85" s="132"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
       <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7626,14 +8530,14 @@
       <c r="F87" s="47"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="133" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="133"/>
-      <c r="C88" s="133"/>
-      <c r="D88" s="133"/>
-      <c r="E88" s="133"/>
-      <c r="F88" s="133"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7658,7 +8562,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -7919,13 +8823,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8406,10 +9310,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="127" t="s">
+      <c r="B81" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="128"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="109"/>
       <c r="E81" s="110">
         <v>5130.76</v>
@@ -8426,30 +9330,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="111"/>
-      <c r="B83" s="129"/>
-      <c r="C83" s="130"/>
-      <c r="D83" s="130"/>
-      <c r="E83" s="130"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
       <c r="F83" s="112"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="131" t="s">
+      <c r="A84" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="131"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="132" t="s">
+      <c r="A85" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="132"/>
-      <c r="C85" s="132"/>
-      <c r="D85" s="132"/>
-      <c r="E85" s="132"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
       <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8469,23 +9373,23 @@
       <c r="F87" s="47"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="133" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="133"/>
-      <c r="C88" s="133"/>
-      <c r="D88" s="133"/>
-      <c r="E88" s="133"/>
-      <c r="F88" s="133"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A88:F88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Factures_Excel/1596 - Mélanie Jalbert.xlsx
+++ b/Factures_Excel/1596 - Mélanie Jalbert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA829B6D-A219-4C3F-AB65-FD426CBBE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD23B081-E15E-43DC-9572-6B6CA1951BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="06-10-21" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2024-11-02 - 24-24584" sheetId="12" r:id="rId8"/>
     <sheet name="2024-12-21 - 24-24691" sheetId="13" r:id="rId9"/>
     <sheet name="2025-03-02 - 25-24780" sheetId="14" r:id="rId10"/>
+    <sheet name="2025-05-17 - 25-24937" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$53</definedName>
@@ -40,6 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2024-11-02 - 24-24584'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2024-12-21 - 24-24691'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-03-02 - 25-24780'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'2025-05-17 - 25-24937'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'22-12-22'!$A$1:$F$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'30-03-22'!$A$1:$F$87</definedName>
     <definedName name="Zone_impres_MI">#REF!</definedName>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="123">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -397,6 +399,39 @@
   </si>
   <si>
     <t>9512-4517 Québec Inc.</t>
+  </si>
+  <si>
+    <t>Le 17 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24937</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Répondre à diverses questions sur divers sujets, notamment les loyer commerciaux, l'imposition des revenus de prêts privés, etc ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Obtention et analyse des différents soldes fiscaux de toutes les parties impliquées;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de tableaux de capital actions;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Rédaction d'un mémorandum fiscal pour mettre en place la réorganisation fiscale déterminée;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyses, calculs et préparation de tableaux en lien avec l'établissement d'une juste valeur marchande des diverses sociétés;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des différents formulaires et annexes requises afin de déclarer un CDC;</t>
+  </si>
+  <si>
+    <t>243 rue Principale</t>
+  </si>
+  <si>
+    <t>HONORAIRES PROFESSIONNELS</t>
   </si>
 </sst>
 </file>
@@ -608,7 +643,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +665,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +879,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1089,6 +1130,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1291,6 +1335,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10241" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E590E4C0-56F7-AD18-E644-54A976F31F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2177,14 +2287,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -2205,285 +2315,285 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="116" t="s">
+      <c r="B53" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="116" t="s">
+      <c r="B55" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="116" t="s">
+      <c r="B57" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -2513,17 +2623,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="116"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -2630,19 +2740,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -2650,9 +2760,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="119"/>
+      <c r="D79" s="119"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -2687,31 +2797,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="122"/>
+      <c r="D83" s="122"/>
+      <c r="E83" s="122"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="116"/>
+      <c r="D84" s="116"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -2723,26 +2833,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="123"/>
+      <c r="D87" s="123"/>
+      <c r="E87" s="123"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="B88" s="115"/>
+      <c r="C88" s="115"/>
+      <c r="D88" s="115"/>
+      <c r="E88" s="115"/>
+      <c r="F88" s="115"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="119"/>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
+      <c r="B90" s="120"/>
+      <c r="C90" s="121"/>
+      <c r="D90" s="121"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2805,7 +2915,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2818,8 +2928,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3079,13 +3189,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3546,10 +3656,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="129"/>
+      <c r="C81" s="130"/>
       <c r="D81" s="109"/>
       <c r="E81" s="110">
         <v>2184.5300000000002</v>
@@ -3566,30 +3676,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="111"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
       <c r="F83" s="112"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="132" t="s">
+      <c r="A84" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3609,14 +3719,897 @@
       <c r="F87" s="47"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DD9003-8757-42AA-9FCC-B63CBA799F43}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="70"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="72"/>
+      <c r="B34" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="72"/>
+      <c r="B35" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
+      <c r="B36" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="72"/>
+      <c r="B37" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="72"/>
+      <c r="B38" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="72"/>
+      <c r="B39" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="72"/>
+      <c r="B40" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="72"/>
+      <c r="B41" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="72"/>
+      <c r="B42" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="72"/>
+      <c r="B43" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="72"/>
+      <c r="B44" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="72"/>
+      <c r="B45" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="72"/>
+      <c r="B46" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="72"/>
+      <c r="B47" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="72"/>
+      <c r="B48" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="72"/>
+      <c r="B49" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="72"/>
+      <c r="B50" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="72"/>
+      <c r="B51" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="72"/>
+      <c r="B52" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="72"/>
+      <c r="B53" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="72"/>
+      <c r="B54" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="72"/>
+      <c r="B55" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="72"/>
+      <c r="B56" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="72"/>
+      <c r="B57" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="72"/>
+      <c r="B58" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="72"/>
+      <c r="B59" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="72"/>
+      <c r="B60" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="72"/>
+      <c r="B61" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="72"/>
+      <c r="B62" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="72"/>
+      <c r="B63" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="72"/>
+      <c r="B64" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="85"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="72"/>
+      <c r="B65" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="72"/>
+      <c r="B66" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="88">
+        <v>32.5</v>
+      </c>
+      <c r="D66" s="89">
+        <v>385</v>
+      </c>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="72"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="72"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="72"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="92"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="93">
+        <v>12512.5</v>
+      </c>
+      <c r="F69" s="93"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="59"/>
+      <c r="B70" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="95"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="96">
+        <v>40</v>
+      </c>
+      <c r="F70" s="96"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="95"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="96">
+        <v>0</v>
+      </c>
+      <c r="F71" s="96"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="95"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="96">
+        <v>416.35</v>
+      </c>
+      <c r="F72" s="96"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="92"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="98">
+        <v>12968.85</v>
+      </c>
+      <c r="F73" s="98"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59"/>
+      <c r="B74" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="99">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="95"/>
+      <c r="E74" s="100">
+        <v>648.44000000000005</v>
+      </c>
+      <c r="F74" s="100"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="59"/>
+      <c r="B75" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="102">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="95"/>
+      <c r="E75" s="103">
+        <v>1293.6400000000001</v>
+      </c>
+      <c r="F75" s="100"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="59"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="92"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="106">
+        <v>14910.93</v>
+      </c>
+      <c r="F77" s="107"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="101"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="101"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="101"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="130"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="110">
+        <v>14910.93</v>
+      </c>
+      <c r="F81" s="62"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="111"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="112"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="73"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="113"/>
+      <c r="B86" s="113"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="113"/>
+      <c r="E86" s="113"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="113"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="113"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3777,14 +4770,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -3805,259 +4798,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
@@ -4087,17 +5080,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
@@ -4204,19 +5197,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
       <c r="E75" s="37"/>
       <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
       <c r="E76" s="37">
         <v>0</v>
       </c>
@@ -4224,9 +5217,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
@@ -4261,31 +5254,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="121"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
       <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="115" t="s">
+      <c r="A82" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
@@ -4297,26 +5290,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
       <c r="F85" s="22"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="119"/>
-      <c r="C88" s="120"/>
-      <c r="D88" s="120"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4376,7 +5369,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4525,14 +5518,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -4553,243 +5546,243 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
@@ -4819,17 +5812,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
@@ -4936,19 +5929,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
       <c r="E75" s="37"/>
       <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
       <c r="E76" s="37">
         <v>0</v>
       </c>
@@ -4956,9 +5949,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
@@ -4993,31 +5986,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="121"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
       <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="115" t="s">
+      <c r="A82" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
@@ -5029,26 +6022,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
       <c r="F85" s="22"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="119"/>
-      <c r="C88" s="120"/>
-      <c r="D88" s="120"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5108,7 +6101,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5257,14 +6250,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -5285,243 +6278,243 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
@@ -5551,17 +6544,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
@@ -5668,19 +6661,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
       <c r="E75" s="37"/>
       <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
       <c r="E76" s="37">
         <v>0</v>
       </c>
@@ -5688,9 +6681,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
@@ -5725,31 +6718,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="121"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
       <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="115" t="s">
+      <c r="A82" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
@@ -5761,26 +6754,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
       <c r="F85" s="22"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="119"/>
-      <c r="C88" s="120"/>
-      <c r="D88" s="120"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5840,7 +6833,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5989,14 +6982,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -6017,243 +7010,243 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
@@ -6275,17 +7268,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
@@ -6392,19 +7385,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
       <c r="E75" s="37"/>
       <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
       <c r="E76" s="37">
         <v>0</v>
       </c>
@@ -6412,9 +7405,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
@@ -6449,31 +7442,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="121"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
       <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="115" t="s">
+      <c r="A82" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
@@ -6485,26 +7478,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
       <c r="F85" s="22"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="119"/>
-      <c r="C88" s="120"/>
-      <c r="D88" s="120"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6564,7 +7557,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6713,14 +7706,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -6741,243 +7734,243 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
@@ -6999,17 +7992,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
@@ -7116,19 +8109,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
       <c r="E75" s="37"/>
       <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
       <c r="E76" s="37">
         <v>0</v>
       </c>
@@ -7136,9 +8129,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
@@ -7173,31 +8166,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="121"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
       <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="115" t="s">
+      <c r="A82" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
@@ -7209,26 +8202,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
       <c r="F85" s="22"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="119"/>
-      <c r="C88" s="120"/>
-      <c r="D88" s="120"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -7288,7 +8281,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7315,10 +8308,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="125"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7731,7 +8724,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -8004,13 +8997,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8467,10 +9460,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="129"/>
+      <c r="C81" s="130"/>
       <c r="D81" s="109"/>
       <c r="E81" s="110">
         <v>905.43</v>
@@ -8487,30 +9480,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="111"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
       <c r="F83" s="112"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="132" t="s">
+      <c r="A84" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8530,14 +9523,14 @@
       <c r="F87" s="47"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8823,13 +9816,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9310,10 +10303,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="129"/>
+      <c r="C81" s="130"/>
       <c r="D81" s="109"/>
       <c r="E81" s="110">
         <v>5130.76</v>
@@ -9330,30 +10323,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="111"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
       <c r="F83" s="112"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="132" t="s">
+      <c r="A84" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9373,14 +10366,14 @@
       <c r="F87" s="47"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="6">
